--- a/candidatos_tabla.xlsx
+++ b/candidatos_tabla.xlsx
@@ -20,27 +20,27 @@
     <t xml:space="preserve">Candidato</t>
   </si>
   <si>
+    <t xml:space="preserve">Coalicion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partido</t>
+  </si>
+  <si>
     <t xml:space="preserve">Posicion</t>
   </si>
   <si>
-    <t xml:space="preserve">Coalicion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partido</t>
-  </si>
-  <si>
     <t xml:space="preserve">Rodrigo Rettig</t>
   </si>
   <si>
+    <t xml:space="preserve">Lista del Apruebo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIU</t>
+  </si>
+  <si>
     <t xml:space="preserve">✔️Adhiere</t>
   </si>
   <si>
-    <t xml:space="preserve">Lista del Apruebo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIU</t>
-  </si>
-  <si>
     <t xml:space="preserve">Marlenne Aroca</t>
   </si>
   <si>
@@ -107,10 +107,10 @@
     <t xml:space="preserve">Jorge Baradit</t>
   </si>
   <si>
+    <t xml:space="preserve">IND</t>
+  </si>
+  <si>
     <t xml:space="preserve">❓No responde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IND</t>
   </si>
   <si>
     <t xml:space="preserve">Francisco Reyes Morande</t>
@@ -1552,13 +1552,13 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1569,13 +1569,13 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1586,13 +1586,13 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1603,13 +1603,13 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -1620,13 +1620,13 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -1637,13 +1637,13 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -1654,13 +1654,13 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1671,13 +1671,13 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1688,13 +1688,13 @@
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -1705,13 +1705,13 @@
         <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -1722,13 +1722,13 @@
         <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -1739,13 +1739,13 @@
         <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -1756,13 +1756,13 @@
         <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -1773,13 +1773,13 @@
         <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -1790,13 +1790,13 @@
         <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
@@ -1807,13 +1807,13 @@
         <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -1824,13 +1824,13 @@
         <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20">
@@ -1841,13 +1841,13 @@
         <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -1858,13 +1858,13 @@
         <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -1875,10 +1875,10 @@
         <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D22" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E22" t="s">
         <v>32</v>
@@ -1895,10 +1895,10 @@
         <v>6</v>
       </c>
       <c r="D23" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E23" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24">
@@ -1909,10 +1909,10 @@
         <v>34</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D24" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E24" t="s">
         <v>32</v>
@@ -1926,10 +1926,10 @@
         <v>35</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E25" t="s">
         <v>32</v>
@@ -1943,13 +1943,13 @@
         <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E26" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27">
@@ -1960,10 +1960,10 @@
         <v>37</v>
       </c>
       <c r="C27" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D27" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E27" t="s">
         <v>32</v>
@@ -1977,10 +1977,10 @@
         <v>38</v>
       </c>
       <c r="C28" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D28" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E28" t="s">
         <v>32</v>
@@ -1994,10 +1994,10 @@
         <v>39</v>
       </c>
       <c r="C29" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E29" t="s">
         <v>32</v>
@@ -2011,10 +2011,10 @@
         <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D30" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E30" t="s">
         <v>32</v>
@@ -2031,10 +2031,10 @@
         <v>6</v>
       </c>
       <c r="D31" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E31" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32">
@@ -2045,13 +2045,13 @@
         <v>42</v>
       </c>
       <c r="C32" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33">
@@ -2062,13 +2062,13 @@
         <v>43</v>
       </c>
       <c r="C33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33" t="s">
         <v>44</v>
-      </c>
-      <c r="D33" t="s">
-        <v>7</v>
-      </c>
-      <c r="E33" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="34">
@@ -2079,10 +2079,10 @@
         <v>45</v>
       </c>
       <c r="C34" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D34" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E34" t="s">
         <v>32</v>
@@ -2096,10 +2096,10 @@
         <v>46</v>
       </c>
       <c r="C35" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D35" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E35" t="s">
         <v>32</v>
@@ -2116,10 +2116,10 @@
         <v>6</v>
       </c>
       <c r="D36" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E36" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37">
@@ -2133,10 +2133,10 @@
         <v>6</v>
       </c>
       <c r="D37" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E37" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38">
@@ -2147,13 +2147,13 @@
         <v>49</v>
       </c>
       <c r="C38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" t="s">
+        <v>31</v>
+      </c>
+      <c r="E38" t="s">
         <v>50</v>
-      </c>
-      <c r="D38" t="s">
-        <v>7</v>
-      </c>
-      <c r="E38" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="39">
@@ -2164,13 +2164,13 @@
         <v>51</v>
       </c>
       <c r="C39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" t="s">
+        <v>31</v>
+      </c>
+      <c r="E39" t="s">
         <v>50</v>
-      </c>
-      <c r="D39" t="s">
-        <v>7</v>
-      </c>
-      <c r="E39" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="40">
@@ -2181,10 +2181,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D40" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E40" t="s">
         <v>32</v>
@@ -2198,13 +2198,13 @@
         <v>53</v>
       </c>
       <c r="C41" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E41" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42">
@@ -2215,10 +2215,10 @@
         <v>54</v>
       </c>
       <c r="C42" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E42" t="s">
         <v>32</v>
@@ -2235,10 +2235,10 @@
         <v>6</v>
       </c>
       <c r="D43" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E43" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44">
@@ -2249,13 +2249,13 @@
         <v>56</v>
       </c>
       <c r="C44" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" t="s">
+        <v>31</v>
+      </c>
+      <c r="E44" t="s">
         <v>57</v>
-      </c>
-      <c r="D44" t="s">
-        <v>7</v>
-      </c>
-      <c r="E44" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="45">
@@ -2269,10 +2269,10 @@
         <v>6</v>
       </c>
       <c r="D45" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E45" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46">
@@ -2283,10 +2283,10 @@
         <v>59</v>
       </c>
       <c r="C46" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D46" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E46" t="s">
         <v>32</v>
@@ -2300,10 +2300,10 @@
         <v>60</v>
       </c>
       <c r="C47" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D47" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E47" t="s">
         <v>32</v>
@@ -2317,13 +2317,13 @@
         <v>61</v>
       </c>
       <c r="C48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" t="s">
+        <v>31</v>
+      </c>
+      <c r="E48" t="s">
         <v>44</v>
-      </c>
-      <c r="D48" t="s">
-        <v>7</v>
-      </c>
-      <c r="E48" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="49">
@@ -2337,10 +2337,10 @@
         <v>6</v>
       </c>
       <c r="D49" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E49" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50">
@@ -2351,10 +2351,10 @@
         <v>63</v>
       </c>
       <c r="C50" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D50" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E50" t="s">
         <v>32</v>
@@ -2368,10 +2368,10 @@
         <v>64</v>
       </c>
       <c r="C51" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D51" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E51" t="s">
         <v>32</v>
@@ -2385,13 +2385,13 @@
         <v>65</v>
       </c>
       <c r="C52" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E52" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53">
@@ -2402,13 +2402,13 @@
         <v>66</v>
       </c>
       <c r="C53" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E53" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54">
@@ -2419,10 +2419,10 @@
         <v>67</v>
       </c>
       <c r="C54" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D54" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E54" t="s">
         <v>32</v>
@@ -2436,10 +2436,10 @@
         <v>68</v>
       </c>
       <c r="C55" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D55" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E55" t="s">
         <v>32</v>
@@ -2456,10 +2456,10 @@
         <v>6</v>
       </c>
       <c r="D56" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E56" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57">
@@ -2473,10 +2473,10 @@
         <v>6</v>
       </c>
       <c r="D57" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E57" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58">
@@ -2487,10 +2487,10 @@
         <v>71</v>
       </c>
       <c r="C58" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D58" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E58" t="s">
         <v>32</v>
@@ -2504,10 +2504,10 @@
         <v>72</v>
       </c>
       <c r="C59" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D59" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E59" t="s">
         <v>32</v>
@@ -2521,13 +2521,13 @@
         <v>73</v>
       </c>
       <c r="C60" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" t="s">
+        <v>31</v>
+      </c>
+      <c r="E60" t="s">
         <v>44</v>
-      </c>
-      <c r="D60" t="s">
-        <v>7</v>
-      </c>
-      <c r="E60" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="61">
@@ -2541,10 +2541,10 @@
         <v>6</v>
       </c>
       <c r="D61" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E61" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62">
@@ -2558,10 +2558,10 @@
         <v>6</v>
       </c>
       <c r="D62" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E62" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63">
@@ -2572,10 +2572,10 @@
         <v>76</v>
       </c>
       <c r="C63" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D63" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E63" t="s">
         <v>32</v>
@@ -2589,10 +2589,10 @@
         <v>77</v>
       </c>
       <c r="C64" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E64" t="s">
         <v>32</v>
@@ -2609,10 +2609,10 @@
         <v>6</v>
       </c>
       <c r="D65" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E65" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66">
@@ -2623,10 +2623,10 @@
         <v>79</v>
       </c>
       <c r="C66" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D66" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E66" t="s">
         <v>32</v>
@@ -2640,10 +2640,10 @@
         <v>80</v>
       </c>
       <c r="C67" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D67" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E67" t="s">
         <v>32</v>
@@ -2657,10 +2657,10 @@
         <v>81</v>
       </c>
       <c r="C68" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E68" t="s">
         <v>32</v>
@@ -2674,13 +2674,13 @@
         <v>82</v>
       </c>
       <c r="C69" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E69" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70">
@@ -2691,13 +2691,13 @@
         <v>83</v>
       </c>
       <c r="C70" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E70" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71">
@@ -2708,10 +2708,10 @@
         <v>84</v>
       </c>
       <c r="C71" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D71" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E71" t="s">
         <v>32</v>
@@ -2728,10 +2728,10 @@
         <v>6</v>
       </c>
       <c r="D72" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E72" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73">
@@ -2742,10 +2742,10 @@
         <v>86</v>
       </c>
       <c r="C73" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D73" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E73" t="s">
         <v>32</v>
@@ -2762,10 +2762,10 @@
         <v>6</v>
       </c>
       <c r="D74" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E74" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75">
@@ -2776,10 +2776,10 @@
         <v>88</v>
       </c>
       <c r="C75" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D75" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E75" t="s">
         <v>32</v>
@@ -2793,10 +2793,10 @@
         <v>89</v>
       </c>
       <c r="C76" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D76" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E76" t="s">
         <v>32</v>
@@ -2810,13 +2810,13 @@
         <v>90</v>
       </c>
       <c r="C77" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E77" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78">
@@ -2827,13 +2827,13 @@
         <v>91</v>
       </c>
       <c r="C78" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E78" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79">
@@ -2844,10 +2844,10 @@
         <v>92</v>
       </c>
       <c r="C79" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E79" t="s">
         <v>32</v>
@@ -2864,10 +2864,10 @@
         <v>6</v>
       </c>
       <c r="D80" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E80" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81">
@@ -2881,10 +2881,10 @@
         <v>6</v>
       </c>
       <c r="D81" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E81" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82">
@@ -2898,10 +2898,10 @@
         <v>6</v>
       </c>
       <c r="D82" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E82" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83">
@@ -2912,13 +2912,13 @@
         <v>96</v>
       </c>
       <c r="C83" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E83" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84">
@@ -2932,10 +2932,10 @@
         <v>6</v>
       </c>
       <c r="D84" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E84" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="85">
@@ -2946,10 +2946,10 @@
         <v>98</v>
       </c>
       <c r="C85" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E85" t="s">
         <v>32</v>
@@ -2963,13 +2963,13 @@
         <v>99</v>
       </c>
       <c r="C86" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E86" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="87">
@@ -2983,10 +2983,10 @@
         <v>6</v>
       </c>
       <c r="D87" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E87" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="88">
@@ -2997,13 +2997,13 @@
         <v>101</v>
       </c>
       <c r="C88" t="s">
+        <v>6</v>
+      </c>
+      <c r="D88" t="s">
+        <v>31</v>
+      </c>
+      <c r="E88" t="s">
         <v>44</v>
-      </c>
-      <c r="D88" t="s">
-        <v>7</v>
-      </c>
-      <c r="E88" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="89">
@@ -3014,10 +3014,10 @@
         <v>102</v>
       </c>
       <c r="C89" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D89" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E89" t="s">
         <v>32</v>
@@ -3031,13 +3031,13 @@
         <v>103</v>
       </c>
       <c r="C90" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E90" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="91">
@@ -3048,10 +3048,10 @@
         <v>104</v>
       </c>
       <c r="C91" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D91" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E91" t="s">
         <v>32</v>
@@ -3065,10 +3065,10 @@
         <v>105</v>
       </c>
       <c r="C92" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D92" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E92" t="s">
         <v>32</v>
@@ -3082,13 +3082,13 @@
         <v>106</v>
       </c>
       <c r="C93" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E93" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="94">
@@ -3099,10 +3099,10 @@
         <v>107</v>
       </c>
       <c r="C94" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D94" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E94" t="s">
         <v>32</v>
@@ -3116,10 +3116,10 @@
         <v>108</v>
       </c>
       <c r="C95" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E95" t="s">
         <v>32</v>
@@ -3133,13 +3133,13 @@
         <v>109</v>
       </c>
       <c r="C96" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E96" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="97">
@@ -3150,10 +3150,10 @@
         <v>110</v>
       </c>
       <c r="C97" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E97" t="s">
         <v>32</v>
@@ -3167,10 +3167,10 @@
         <v>111</v>
       </c>
       <c r="C98" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D98" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E98" t="s">
         <v>32</v>
@@ -3184,10 +3184,10 @@
         <v>112</v>
       </c>
       <c r="C99" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E99" t="s">
         <v>32</v>
@@ -3201,13 +3201,13 @@
         <v>113</v>
       </c>
       <c r="C100" t="s">
+        <v>6</v>
+      </c>
+      <c r="D100" t="s">
+        <v>31</v>
+      </c>
+      <c r="E100" t="s">
         <v>50</v>
-      </c>
-      <c r="D100" t="s">
-        <v>7</v>
-      </c>
-      <c r="E100" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="101">
@@ -3221,10 +3221,10 @@
         <v>6</v>
       </c>
       <c r="D101" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E101" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="102">
@@ -3235,13 +3235,13 @@
         <v>115</v>
       </c>
       <c r="C102" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E102" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="103">
@@ -3252,13 +3252,13 @@
         <v>116</v>
       </c>
       <c r="C103" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E103" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="104">
@@ -3269,13 +3269,13 @@
         <v>117</v>
       </c>
       <c r="C104" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E104" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="105">
@@ -3286,10 +3286,10 @@
         <v>118</v>
       </c>
       <c r="C105" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D105" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E105" t="s">
         <v>32</v>
@@ -3303,10 +3303,10 @@
         <v>119</v>
       </c>
       <c r="C106" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D106" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E106" t="s">
         <v>32</v>
@@ -3320,13 +3320,13 @@
         <v>120</v>
       </c>
       <c r="C107" t="s">
+        <v>6</v>
+      </c>
+      <c r="D107" t="s">
+        <v>31</v>
+      </c>
+      <c r="E107" t="s">
         <v>50</v>
-      </c>
-      <c r="D107" t="s">
-        <v>7</v>
-      </c>
-      <c r="E107" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="108">
@@ -3337,10 +3337,10 @@
         <v>121</v>
       </c>
       <c r="C108" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E108" t="s">
         <v>32</v>
@@ -3354,10 +3354,10 @@
         <v>122</v>
       </c>
       <c r="C109" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D109" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E109" t="s">
         <v>32</v>
@@ -3374,10 +3374,10 @@
         <v>6</v>
       </c>
       <c r="D110" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E110" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="111">
@@ -3391,10 +3391,10 @@
         <v>6</v>
       </c>
       <c r="D111" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E111" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="112">
@@ -3405,13 +3405,13 @@
         <v>125</v>
       </c>
       <c r="C112" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E112" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="113">
@@ -3422,13 +3422,13 @@
         <v>126</v>
       </c>
       <c r="C113" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E113" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="114">
@@ -3442,10 +3442,10 @@
         <v>6</v>
       </c>
       <c r="D114" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E114" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="115">
@@ -3456,13 +3456,13 @@
         <v>128</v>
       </c>
       <c r="C115" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E115" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="116">
@@ -3473,10 +3473,10 @@
         <v>129</v>
       </c>
       <c r="C116" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D116" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E116" t="s">
         <v>32</v>
@@ -3490,13 +3490,13 @@
         <v>130</v>
       </c>
       <c r="C117" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E117" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="118">
@@ -3510,10 +3510,10 @@
         <v>6</v>
       </c>
       <c r="D118" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E118" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="119">
@@ -3527,10 +3527,10 @@
         <v>6</v>
       </c>
       <c r="D119" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E119" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="120">
@@ -3541,13 +3541,13 @@
         <v>133</v>
       </c>
       <c r="C120" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E120" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="121">
@@ -3558,13 +3558,13 @@
         <v>134</v>
       </c>
       <c r="C121" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E121" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="122">
@@ -3575,13 +3575,13 @@
         <v>135</v>
       </c>
       <c r="C122" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E122" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="123">
@@ -3592,13 +3592,13 @@
         <v>136</v>
       </c>
       <c r="C123" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E123" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="124">
@@ -3609,13 +3609,13 @@
         <v>137</v>
       </c>
       <c r="C124" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E124" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="125">
@@ -3626,13 +3626,13 @@
         <v>138</v>
       </c>
       <c r="C125" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E125" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="126">
@@ -3646,10 +3646,10 @@
         <v>6</v>
       </c>
       <c r="D126" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E126" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="127">
@@ -3660,10 +3660,10 @@
         <v>140</v>
       </c>
       <c r="C127" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E127" t="s">
         <v>32</v>
@@ -3677,10 +3677,10 @@
         <v>141</v>
       </c>
       <c r="C128" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D128" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E128" t="s">
         <v>32</v>
@@ -3694,10 +3694,10 @@
         <v>142</v>
       </c>
       <c r="C129" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D129" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E129" t="s">
         <v>32</v>
@@ -3711,13 +3711,13 @@
         <v>143</v>
       </c>
       <c r="C130" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E130" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="131">
@@ -3728,13 +3728,13 @@
         <v>144</v>
       </c>
       <c r="C131" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E131" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="132">
@@ -3748,10 +3748,10 @@
         <v>6</v>
       </c>
       <c r="D132" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E132" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="133">
@@ -3762,13 +3762,13 @@
         <v>146</v>
       </c>
       <c r="C133" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E133" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="134">
@@ -3779,13 +3779,13 @@
         <v>147</v>
       </c>
       <c r="C134" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E134" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="135">
@@ -3796,13 +3796,13 @@
         <v>148</v>
       </c>
       <c r="C135" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E135" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="136">
@@ -3816,10 +3816,10 @@
         <v>6</v>
       </c>
       <c r="D136" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E136" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="137">
@@ -3830,13 +3830,13 @@
         <v>150</v>
       </c>
       <c r="C137" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E137" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="138">
@@ -3847,10 +3847,10 @@
         <v>151</v>
       </c>
       <c r="C138" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D138" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E138" t="s">
         <v>32</v>
@@ -3864,13 +3864,13 @@
         <v>152</v>
       </c>
       <c r="C139" t="s">
+        <v>6</v>
+      </c>
+      <c r="D139" t="s">
+        <v>31</v>
+      </c>
+      <c r="E139" t="s">
         <v>50</v>
-      </c>
-      <c r="D139" t="s">
-        <v>7</v>
-      </c>
-      <c r="E139" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="140">
@@ -3881,13 +3881,13 @@
         <v>153</v>
       </c>
       <c r="C140" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E140" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="141">
@@ -3901,10 +3901,10 @@
         <v>6</v>
       </c>
       <c r="D141" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E141" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="142">
@@ -3915,13 +3915,13 @@
         <v>155</v>
       </c>
       <c r="C142" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E142" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="143">
@@ -3932,10 +3932,10 @@
         <v>156</v>
       </c>
       <c r="C143" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E143" t="s">
         <v>32</v>
@@ -3949,10 +3949,10 @@
         <v>157</v>
       </c>
       <c r="C144" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E144" t="s">
         <v>32</v>
@@ -3966,10 +3966,10 @@
         <v>158</v>
       </c>
       <c r="C145" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D145" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E145" t="s">
         <v>32</v>
@@ -3983,13 +3983,13 @@
         <v>159</v>
       </c>
       <c r="C146" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E146" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="147">
@@ -4000,10 +4000,10 @@
         <v>160</v>
       </c>
       <c r="C147" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E147" t="s">
         <v>32</v>
@@ -4017,13 +4017,13 @@
         <v>161</v>
       </c>
       <c r="C148" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E148" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="149">
@@ -4034,10 +4034,10 @@
         <v>162</v>
       </c>
       <c r="C149" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D149" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E149" t="s">
         <v>32</v>
@@ -4051,13 +4051,13 @@
         <v>163</v>
       </c>
       <c r="C150" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E150" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="151">
@@ -4068,13 +4068,13 @@
         <v>164</v>
       </c>
       <c r="C151" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E151" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="152">
@@ -4085,10 +4085,10 @@
         <v>165</v>
       </c>
       <c r="C152" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E152" t="s">
         <v>32</v>
@@ -4102,10 +4102,10 @@
         <v>166</v>
       </c>
       <c r="C153" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E153" t="s">
         <v>32</v>
@@ -4119,13 +4119,13 @@
         <v>167</v>
       </c>
       <c r="C154" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D154" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E154" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="155">
@@ -4136,13 +4136,13 @@
         <v>168</v>
       </c>
       <c r="C155" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D155" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E155" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="156">
@@ -4153,13 +4153,13 @@
         <v>169</v>
       </c>
       <c r="C156" t="s">
+        <v>6</v>
+      </c>
+      <c r="D156" t="s">
+        <v>31</v>
+      </c>
+      <c r="E156" t="s">
         <v>57</v>
-      </c>
-      <c r="D156" t="s">
-        <v>7</v>
-      </c>
-      <c r="E156" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="157">
@@ -4170,13 +4170,13 @@
         <v>170</v>
       </c>
       <c r="C157" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D157" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E157" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="158">
@@ -4187,13 +4187,13 @@
         <v>171</v>
       </c>
       <c r="C158" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D158" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E158" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="159">
@@ -4204,10 +4204,10 @@
         <v>172</v>
       </c>
       <c r="C159" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D159" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E159" t="s">
         <v>32</v>
@@ -4221,10 +4221,10 @@
         <v>173</v>
       </c>
       <c r="C160" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D160" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E160" t="s">
         <v>32</v>
@@ -4238,13 +4238,13 @@
         <v>174</v>
       </c>
       <c r="C161" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D161" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E161" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="162">
@@ -4255,13 +4255,13 @@
         <v>175</v>
       </c>
       <c r="C162" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D162" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E162" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="163">
@@ -4272,13 +4272,13 @@
         <v>176</v>
       </c>
       <c r="C163" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D163" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E163" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="164">
@@ -4289,13 +4289,13 @@
         <v>177</v>
       </c>
       <c r="C164" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D164" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E164" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="165">
@@ -4306,13 +4306,13 @@
         <v>178</v>
       </c>
       <c r="C165" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D165" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E165" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="166">
@@ -4323,13 +4323,13 @@
         <v>179</v>
       </c>
       <c r="C166" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D166" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E166" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="167">
@@ -4340,13 +4340,13 @@
         <v>180</v>
       </c>
       <c r="C167" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D167" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E167" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="168">
@@ -4357,13 +4357,13 @@
         <v>181</v>
       </c>
       <c r="C168" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D168" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E168" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="169">
@@ -4374,10 +4374,10 @@
         <v>182</v>
       </c>
       <c r="C169" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D169" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E169" t="s">
         <v>32</v>
@@ -4391,13 +4391,13 @@
         <v>183</v>
       </c>
       <c r="C170" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D170" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E170" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="171">
@@ -4408,10 +4408,10 @@
         <v>184</v>
       </c>
       <c r="C171" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D171" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E171" t="s">
         <v>32</v>
@@ -4425,13 +4425,13 @@
         <v>185</v>
       </c>
       <c r="C172" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D172" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E172" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="173">
@@ -4442,13 +4442,13 @@
         <v>186</v>
       </c>
       <c r="C173" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D173" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E173" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="174">
@@ -4459,13 +4459,13 @@
         <v>187</v>
       </c>
       <c r="C174" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D174" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E174" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="175">
@@ -4476,13 +4476,13 @@
         <v>188</v>
       </c>
       <c r="C175" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D175" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E175" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="176">
@@ -4493,13 +4493,13 @@
         <v>189</v>
       </c>
       <c r="C176" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D176" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E176" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="177">
@@ -4510,13 +4510,13 @@
         <v>190</v>
       </c>
       <c r="C177" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D177" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E177" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="178">
@@ -4527,10 +4527,10 @@
         <v>191</v>
       </c>
       <c r="C178" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D178" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E178" t="s">
         <v>32</v>
@@ -4544,13 +4544,13 @@
         <v>192</v>
       </c>
       <c r="C179" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D179" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E179" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="180">
@@ -4561,10 +4561,10 @@
         <v>193</v>
       </c>
       <c r="C180" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D180" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E180" t="s">
         <v>32</v>
@@ -4578,10 +4578,10 @@
         <v>194</v>
       </c>
       <c r="C181" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D181" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E181" t="s">
         <v>32</v>
@@ -4595,13 +4595,13 @@
         <v>195</v>
       </c>
       <c r="C182" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D182" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E182" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="183">
@@ -4612,10 +4612,10 @@
         <v>196</v>
       </c>
       <c r="C183" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D183" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E183" t="s">
         <v>32</v>
@@ -4629,10 +4629,10 @@
         <v>197</v>
       </c>
       <c r="C184" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D184" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E184" t="s">
         <v>32</v>
@@ -4646,13 +4646,13 @@
         <v>198</v>
       </c>
       <c r="C185" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D185" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E185" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="186">
@@ -4663,13 +4663,13 @@
         <v>199</v>
       </c>
       <c r="C186" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D186" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E186" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="187">
@@ -4680,10 +4680,10 @@
         <v>200</v>
       </c>
       <c r="C187" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D187" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E187" t="s">
         <v>32</v>
@@ -4697,13 +4697,13 @@
         <v>201</v>
       </c>
       <c r="C188" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D188" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E188" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="189">
@@ -4717,10 +4717,10 @@
         <v>6</v>
       </c>
       <c r="D189" t="s">
-        <v>7</v>
+        <v>203</v>
       </c>
       <c r="E189" t="s">
-        <v>203</v>
+        <v>8</v>
       </c>
     </row>
     <row r="190">
@@ -4731,13 +4731,13 @@
         <v>204</v>
       </c>
       <c r="C190" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D190" t="s">
-        <v>7</v>
+        <v>203</v>
       </c>
       <c r="E190" t="s">
-        <v>203</v>
+        <v>32</v>
       </c>
     </row>
     <row r="191">
@@ -4748,13 +4748,13 @@
         <v>205</v>
       </c>
       <c r="C191" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D191" t="s">
-        <v>7</v>
+        <v>203</v>
       </c>
       <c r="E191" t="s">
-        <v>203</v>
+        <v>32</v>
       </c>
     </row>
     <row r="192">
@@ -4765,13 +4765,13 @@
         <v>206</v>
       </c>
       <c r="C192" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D192" t="s">
-        <v>7</v>
+        <v>203</v>
       </c>
       <c r="E192" t="s">
-        <v>203</v>
+        <v>32</v>
       </c>
     </row>
     <row r="193">
@@ -4785,10 +4785,10 @@
         <v>6</v>
       </c>
       <c r="D193" t="s">
-        <v>7</v>
+        <v>203</v>
       </c>
       <c r="E193" t="s">
-        <v>203</v>
+        <v>8</v>
       </c>
     </row>
     <row r="194">
@@ -4799,13 +4799,13 @@
         <v>208</v>
       </c>
       <c r="C194" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D194" t="s">
-        <v>7</v>
+        <v>203</v>
       </c>
       <c r="E194" t="s">
-        <v>203</v>
+        <v>32</v>
       </c>
     </row>
     <row r="195">
@@ -4819,10 +4819,10 @@
         <v>6</v>
       </c>
       <c r="D195" t="s">
-        <v>7</v>
+        <v>203</v>
       </c>
       <c r="E195" t="s">
-        <v>203</v>
+        <v>8</v>
       </c>
     </row>
     <row r="196">
@@ -4836,10 +4836,10 @@
         <v>6</v>
       </c>
       <c r="D196" t="s">
-        <v>7</v>
+        <v>203</v>
       </c>
       <c r="E196" t="s">
-        <v>203</v>
+        <v>8</v>
       </c>
     </row>
     <row r="197">
@@ -4853,10 +4853,10 @@
         <v>6</v>
       </c>
       <c r="D197" t="s">
-        <v>7</v>
+        <v>203</v>
       </c>
       <c r="E197" t="s">
-        <v>203</v>
+        <v>8</v>
       </c>
     </row>
     <row r="198">
@@ -4867,13 +4867,13 @@
         <v>212</v>
       </c>
       <c r="C198" t="s">
+        <v>6</v>
+      </c>
+      <c r="D198" t="s">
+        <v>203</v>
+      </c>
+      <c r="E198" t="s">
         <v>57</v>
-      </c>
-      <c r="D198" t="s">
-        <v>7</v>
-      </c>
-      <c r="E198" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="199">
@@ -4884,13 +4884,13 @@
         <v>213</v>
       </c>
       <c r="C199" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D199" t="s">
-        <v>7</v>
+        <v>203</v>
       </c>
       <c r="E199" t="s">
-        <v>203</v>
+        <v>32</v>
       </c>
     </row>
     <row r="200">
@@ -4904,10 +4904,10 @@
         <v>6</v>
       </c>
       <c r="D200" t="s">
-        <v>7</v>
+        <v>203</v>
       </c>
       <c r="E200" t="s">
-        <v>203</v>
+        <v>8</v>
       </c>
     </row>
     <row r="201">
@@ -4921,10 +4921,10 @@
         <v>6</v>
       </c>
       <c r="D201" t="s">
-        <v>7</v>
+        <v>203</v>
       </c>
       <c r="E201" t="s">
-        <v>203</v>
+        <v>8</v>
       </c>
     </row>
     <row r="202">
@@ -4935,13 +4935,13 @@
         <v>216</v>
       </c>
       <c r="C202" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D202" t="s">
-        <v>7</v>
+        <v>203</v>
       </c>
       <c r="E202" t="s">
-        <v>203</v>
+        <v>32</v>
       </c>
     </row>
     <row r="203">
@@ -4955,10 +4955,10 @@
         <v>6</v>
       </c>
       <c r="D203" t="s">
-        <v>7</v>
+        <v>203</v>
       </c>
       <c r="E203" t="s">
-        <v>203</v>
+        <v>8</v>
       </c>
     </row>
     <row r="204">
@@ -4969,13 +4969,13 @@
         <v>218</v>
       </c>
       <c r="C204" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D204" t="s">
-        <v>7</v>
+        <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>203</v>
+        <v>32</v>
       </c>
     </row>
     <row r="205">
@@ -4989,10 +4989,10 @@
         <v>6</v>
       </c>
       <c r="D205" t="s">
-        <v>7</v>
+        <v>203</v>
       </c>
       <c r="E205" t="s">
-        <v>203</v>
+        <v>8</v>
       </c>
     </row>
     <row r="206">
@@ -5003,13 +5003,13 @@
         <v>220</v>
       </c>
       <c r="C206" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D206" t="s">
-        <v>7</v>
+        <v>203</v>
       </c>
       <c r="E206" t="s">
-        <v>203</v>
+        <v>32</v>
       </c>
     </row>
     <row r="207">
@@ -5020,13 +5020,13 @@
         <v>221</v>
       </c>
       <c r="C207" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D207" t="s">
-        <v>7</v>
+        <v>203</v>
       </c>
       <c r="E207" t="s">
-        <v>203</v>
+        <v>32</v>
       </c>
     </row>
     <row r="208">
@@ -5037,13 +5037,13 @@
         <v>222</v>
       </c>
       <c r="C208" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D208" t="s">
-        <v>7</v>
+        <v>203</v>
       </c>
       <c r="E208" t="s">
-        <v>203</v>
+        <v>32</v>
       </c>
     </row>
     <row r="209">
@@ -5054,13 +5054,13 @@
         <v>223</v>
       </c>
       <c r="C209" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D209" t="s">
-        <v>7</v>
+        <v>203</v>
       </c>
       <c r="E209" t="s">
-        <v>203</v>
+        <v>32</v>
       </c>
     </row>
     <row r="210">
@@ -5074,10 +5074,10 @@
         <v>6</v>
       </c>
       <c r="D210" t="s">
-        <v>7</v>
+        <v>203</v>
       </c>
       <c r="E210" t="s">
-        <v>203</v>
+        <v>8</v>
       </c>
     </row>
     <row r="211">
@@ -5088,13 +5088,13 @@
         <v>225</v>
       </c>
       <c r="C211" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D211" t="s">
-        <v>7</v>
+        <v>203</v>
       </c>
       <c r="E211" t="s">
-        <v>203</v>
+        <v>32</v>
       </c>
     </row>
     <row r="212">
@@ -5108,10 +5108,10 @@
         <v>6</v>
       </c>
       <c r="D212" t="s">
-        <v>7</v>
+        <v>203</v>
       </c>
       <c r="E212" t="s">
-        <v>203</v>
+        <v>8</v>
       </c>
     </row>
     <row r="213">
@@ -5122,13 +5122,13 @@
         <v>227</v>
       </c>
       <c r="C213" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D213" t="s">
-        <v>7</v>
+        <v>203</v>
       </c>
       <c r="E213" t="s">
-        <v>203</v>
+        <v>32</v>
       </c>
     </row>
     <row r="214">
@@ -5142,10 +5142,10 @@
         <v>6</v>
       </c>
       <c r="D214" t="s">
-        <v>7</v>
+        <v>203</v>
       </c>
       <c r="E214" t="s">
-        <v>203</v>
+        <v>8</v>
       </c>
     </row>
     <row r="215">
@@ -5156,13 +5156,13 @@
         <v>229</v>
       </c>
       <c r="C215" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D215" t="s">
-        <v>7</v>
+        <v>203</v>
       </c>
       <c r="E215" t="s">
-        <v>203</v>
+        <v>32</v>
       </c>
     </row>
     <row r="216">
@@ -5176,10 +5176,10 @@
         <v>6</v>
       </c>
       <c r="D216" t="s">
-        <v>7</v>
+        <v>203</v>
       </c>
       <c r="E216" t="s">
-        <v>203</v>
+        <v>8</v>
       </c>
     </row>
     <row r="217">
@@ -5193,10 +5193,10 @@
         <v>6</v>
       </c>
       <c r="D217" t="s">
-        <v>7</v>
+        <v>203</v>
       </c>
       <c r="E217" t="s">
-        <v>203</v>
+        <v>8</v>
       </c>
     </row>
     <row r="218">
@@ -5210,10 +5210,10 @@
         <v>6</v>
       </c>
       <c r="D218" t="s">
-        <v>7</v>
+        <v>203</v>
       </c>
       <c r="E218" t="s">
-        <v>203</v>
+        <v>8</v>
       </c>
     </row>
     <row r="219">
@@ -5227,10 +5227,10 @@
         <v>6</v>
       </c>
       <c r="D219" t="s">
-        <v>7</v>
+        <v>203</v>
       </c>
       <c r="E219" t="s">
-        <v>203</v>
+        <v>8</v>
       </c>
     </row>
     <row r="220">
@@ -5241,13 +5241,13 @@
         <v>234</v>
       </c>
       <c r="C220" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D220" t="s">
-        <v>7</v>
+        <v>203</v>
       </c>
       <c r="E220" t="s">
-        <v>203</v>
+        <v>32</v>
       </c>
     </row>
     <row r="221">
@@ -5261,10 +5261,10 @@
         <v>6</v>
       </c>
       <c r="D221" t="s">
-        <v>7</v>
+        <v>203</v>
       </c>
       <c r="E221" t="s">
-        <v>203</v>
+        <v>8</v>
       </c>
     </row>
     <row r="222">
@@ -5278,10 +5278,10 @@
         <v>6</v>
       </c>
       <c r="D222" t="s">
-        <v>7</v>
+        <v>203</v>
       </c>
       <c r="E222" t="s">
-        <v>203</v>
+        <v>8</v>
       </c>
     </row>
     <row r="223">
@@ -5292,13 +5292,13 @@
         <v>237</v>
       </c>
       <c r="C223" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D223" t="s">
-        <v>7</v>
+        <v>203</v>
       </c>
       <c r="E223" t="s">
-        <v>203</v>
+        <v>32</v>
       </c>
     </row>
     <row r="224">
@@ -5312,10 +5312,10 @@
         <v>6</v>
       </c>
       <c r="D224" t="s">
-        <v>7</v>
+        <v>203</v>
       </c>
       <c r="E224" t="s">
-        <v>203</v>
+        <v>8</v>
       </c>
     </row>
     <row r="225">
@@ -5329,10 +5329,10 @@
         <v>6</v>
       </c>
       <c r="D225" t="s">
-        <v>7</v>
+        <v>203</v>
       </c>
       <c r="E225" t="s">
-        <v>203</v>
+        <v>8</v>
       </c>
     </row>
     <row r="226">
@@ -5346,10 +5346,10 @@
         <v>6</v>
       </c>
       <c r="D226" t="s">
-        <v>7</v>
+        <v>203</v>
       </c>
       <c r="E226" t="s">
-        <v>203</v>
+        <v>8</v>
       </c>
     </row>
     <row r="227">
@@ -5360,13 +5360,13 @@
         <v>241</v>
       </c>
       <c r="C227" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D227" t="s">
-        <v>7</v>
+        <v>203</v>
       </c>
       <c r="E227" t="s">
-        <v>203</v>
+        <v>32</v>
       </c>
     </row>
     <row r="228">
@@ -5380,10 +5380,10 @@
         <v>6</v>
       </c>
       <c r="D228" t="s">
-        <v>7</v>
+        <v>243</v>
       </c>
       <c r="E228" t="s">
-        <v>243</v>
+        <v>8</v>
       </c>
     </row>
     <row r="229">
@@ -5394,13 +5394,13 @@
         <v>244</v>
       </c>
       <c r="C229" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D229" t="s">
-        <v>7</v>
+        <v>243</v>
       </c>
       <c r="E229" t="s">
-        <v>243</v>
+        <v>32</v>
       </c>
     </row>
     <row r="230">
@@ -5411,13 +5411,13 @@
         <v>245</v>
       </c>
       <c r="C230" t="s">
+        <v>6</v>
+      </c>
+      <c r="D230" t="s">
+        <v>243</v>
+      </c>
+      <c r="E230" t="s">
         <v>44</v>
-      </c>
-      <c r="D230" t="s">
-        <v>7</v>
-      </c>
-      <c r="E230" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="231">
@@ -5431,10 +5431,10 @@
         <v>6</v>
       </c>
       <c r="D231" t="s">
-        <v>7</v>
+        <v>243</v>
       </c>
       <c r="E231" t="s">
-        <v>243</v>
+        <v>8</v>
       </c>
     </row>
     <row r="232">
@@ -5445,13 +5445,13 @@
         <v>247</v>
       </c>
       <c r="C232" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D232" t="s">
-        <v>7</v>
+        <v>248</v>
       </c>
       <c r="E232" t="s">
-        <v>248</v>
+        <v>32</v>
       </c>
     </row>
     <row r="233">
@@ -5462,13 +5462,13 @@
         <v>249</v>
       </c>
       <c r="C233" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D233" t="s">
-        <v>7</v>
+        <v>248</v>
       </c>
       <c r="E233" t="s">
-        <v>248</v>
+        <v>32</v>
       </c>
     </row>
     <row r="234">
@@ -5479,13 +5479,13 @@
         <v>250</v>
       </c>
       <c r="C234" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D234" t="s">
-        <v>7</v>
+        <v>248</v>
       </c>
       <c r="E234" t="s">
-        <v>248</v>
+        <v>32</v>
       </c>
     </row>
     <row r="235">
@@ -5496,13 +5496,13 @@
         <v>251</v>
       </c>
       <c r="C235" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D235" t="s">
-        <v>7</v>
+        <v>248</v>
       </c>
       <c r="E235" t="s">
-        <v>248</v>
+        <v>32</v>
       </c>
     </row>
     <row r="236">
@@ -5513,13 +5513,13 @@
         <v>252</v>
       </c>
       <c r="C236" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D236" t="s">
-        <v>7</v>
+        <v>248</v>
       </c>
       <c r="E236" t="s">
-        <v>248</v>
+        <v>32</v>
       </c>
     </row>
     <row r="237">
@@ -5533,10 +5533,10 @@
         <v>6</v>
       </c>
       <c r="D237" t="s">
-        <v>7</v>
+        <v>248</v>
       </c>
       <c r="E237" t="s">
-        <v>248</v>
+        <v>8</v>
       </c>
     </row>
     <row r="238">
@@ -5550,10 +5550,10 @@
         <v>6</v>
       </c>
       <c r="D238" t="s">
-        <v>7</v>
+        <v>248</v>
       </c>
       <c r="E238" t="s">
-        <v>248</v>
+        <v>8</v>
       </c>
     </row>
     <row r="239">
@@ -5564,13 +5564,13 @@
         <v>255</v>
       </c>
       <c r="C239" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D239" t="s">
-        <v>7</v>
+        <v>248</v>
       </c>
       <c r="E239" t="s">
-        <v>248</v>
+        <v>32</v>
       </c>
     </row>
     <row r="240">
@@ -5584,10 +5584,10 @@
         <v>6</v>
       </c>
       <c r="D240" t="s">
-        <v>7</v>
+        <v>248</v>
       </c>
       <c r="E240" t="s">
-        <v>248</v>
+        <v>8</v>
       </c>
     </row>
     <row r="241">
@@ -5601,10 +5601,10 @@
         <v>6</v>
       </c>
       <c r="D241" t="s">
-        <v>7</v>
+        <v>248</v>
       </c>
       <c r="E241" t="s">
-        <v>248</v>
+        <v>8</v>
       </c>
     </row>
     <row r="242">
@@ -5615,13 +5615,13 @@
         <v>258</v>
       </c>
       <c r="C242" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D242" t="s">
-        <v>7</v>
+        <v>248</v>
       </c>
       <c r="E242" t="s">
-        <v>248</v>
+        <v>32</v>
       </c>
     </row>
     <row r="243">
@@ -5635,10 +5635,10 @@
         <v>6</v>
       </c>
       <c r="D243" t="s">
-        <v>7</v>
+        <v>248</v>
       </c>
       <c r="E243" t="s">
-        <v>248</v>
+        <v>8</v>
       </c>
     </row>
     <row r="244">
@@ -5649,13 +5649,13 @@
         <v>260</v>
       </c>
       <c r="C244" t="s">
+        <v>6</v>
+      </c>
+      <c r="D244" t="s">
+        <v>248</v>
+      </c>
+      <c r="E244" t="s">
         <v>44</v>
-      </c>
-      <c r="D244" t="s">
-        <v>7</v>
-      </c>
-      <c r="E244" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="245">
@@ -5666,13 +5666,13 @@
         <v>261</v>
       </c>
       <c r="C245" t="s">
+        <v>6</v>
+      </c>
+      <c r="D245" t="s">
+        <v>262</v>
+      </c>
+      <c r="E245" t="s">
         <v>57</v>
-      </c>
-      <c r="D245" t="s">
-        <v>7</v>
-      </c>
-      <c r="E245" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="246">
@@ -5686,10 +5686,10 @@
         <v>6</v>
       </c>
       <c r="D246" t="s">
-        <v>7</v>
+        <v>262</v>
       </c>
       <c r="E246" t="s">
-        <v>262</v>
+        <v>8</v>
       </c>
     </row>
     <row r="247">
@@ -5703,10 +5703,10 @@
         <v>6</v>
       </c>
       <c r="D247" t="s">
-        <v>7</v>
+        <v>262</v>
       </c>
       <c r="E247" t="s">
-        <v>262</v>
+        <v>8</v>
       </c>
     </row>
     <row r="248">
@@ -5720,10 +5720,10 @@
         <v>6</v>
       </c>
       <c r="D248" t="s">
-        <v>7</v>
+        <v>262</v>
       </c>
       <c r="E248" t="s">
-        <v>262</v>
+        <v>8</v>
       </c>
     </row>
     <row r="249">
@@ -5734,13 +5734,13 @@
         <v>266</v>
       </c>
       <c r="C249" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D249" t="s">
-        <v>7</v>
+        <v>262</v>
       </c>
       <c r="E249" t="s">
-        <v>262</v>
+        <v>32</v>
       </c>
     </row>
     <row r="250">
@@ -5751,13 +5751,13 @@
         <v>267</v>
       </c>
       <c r="C250" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D250" t="s">
-        <v>7</v>
+        <v>262</v>
       </c>
       <c r="E250" t="s">
-        <v>262</v>
+        <v>32</v>
       </c>
     </row>
     <row r="251">
@@ -5768,13 +5768,13 @@
         <v>268</v>
       </c>
       <c r="C251" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D251" t="s">
-        <v>7</v>
+        <v>262</v>
       </c>
       <c r="E251" t="s">
-        <v>262</v>
+        <v>32</v>
       </c>
     </row>
     <row r="252">
@@ -5785,13 +5785,13 @@
         <v>269</v>
       </c>
       <c r="C252" t="s">
+        <v>6</v>
+      </c>
+      <c r="D252" t="s">
+        <v>262</v>
+      </c>
+      <c r="E252" t="s">
         <v>44</v>
-      </c>
-      <c r="D252" t="s">
-        <v>7</v>
-      </c>
-      <c r="E252" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="253">
@@ -5802,13 +5802,13 @@
         <v>270</v>
       </c>
       <c r="C253" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D253" t="s">
-        <v>7</v>
+        <v>262</v>
       </c>
       <c r="E253" t="s">
-        <v>262</v>
+        <v>32</v>
       </c>
     </row>
     <row r="254">
@@ -5819,13 +5819,13 @@
         <v>271</v>
       </c>
       <c r="C254" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D254" t="s">
-        <v>7</v>
+        <v>262</v>
       </c>
       <c r="E254" t="s">
-        <v>262</v>
+        <v>32</v>
       </c>
     </row>
     <row r="255">
@@ -5839,10 +5839,10 @@
         <v>6</v>
       </c>
       <c r="D255" t="s">
-        <v>7</v>
+        <v>262</v>
       </c>
       <c r="E255" t="s">
-        <v>262</v>
+        <v>8</v>
       </c>
     </row>
     <row r="256">
@@ -5853,13 +5853,13 @@
         <v>273</v>
       </c>
       <c r="C256" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D256" t="s">
-        <v>7</v>
+        <v>262</v>
       </c>
       <c r="E256" t="s">
-        <v>262</v>
+        <v>32</v>
       </c>
     </row>
     <row r="257">
@@ -5873,10 +5873,10 @@
         <v>6</v>
       </c>
       <c r="D257" t="s">
-        <v>7</v>
+        <v>262</v>
       </c>
       <c r="E257" t="s">
-        <v>262</v>
+        <v>8</v>
       </c>
     </row>
     <row r="258">
@@ -5887,13 +5887,13 @@
         <v>275</v>
       </c>
       <c r="C258" t="s">
+        <v>6</v>
+      </c>
+      <c r="D258" t="s">
+        <v>262</v>
+      </c>
+      <c r="E258" t="s">
         <v>50</v>
-      </c>
-      <c r="D258" t="s">
-        <v>7</v>
-      </c>
-      <c r="E258" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="259">
@@ -5904,13 +5904,13 @@
         <v>276</v>
       </c>
       <c r="C259" t="s">
+        <v>6</v>
+      </c>
+      <c r="D259" t="s">
+        <v>262</v>
+      </c>
+      <c r="E259" t="s">
         <v>57</v>
-      </c>
-      <c r="D259" t="s">
-        <v>7</v>
-      </c>
-      <c r="E259" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="260">
@@ -5921,13 +5921,13 @@
         <v>277</v>
       </c>
       <c r="C260" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D260" t="s">
-        <v>10</v>
+        <v>278</v>
       </c>
       <c r="E260" t="s">
-        <v>278</v>
+        <v>32</v>
       </c>
     </row>
     <row r="261">
@@ -5938,13 +5938,13 @@
         <v>279</v>
       </c>
       <c r="C261" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D261" t="s">
-        <v>10</v>
+        <v>278</v>
       </c>
       <c r="E261" t="s">
-        <v>278</v>
+        <v>8</v>
       </c>
     </row>
     <row r="262">
@@ -5955,13 +5955,13 @@
         <v>280</v>
       </c>
       <c r="C262" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D262" t="s">
-        <v>10</v>
+        <v>278</v>
       </c>
       <c r="E262" t="s">
-        <v>278</v>
+        <v>32</v>
       </c>
     </row>
     <row r="263">
@@ -5972,13 +5972,13 @@
         <v>281</v>
       </c>
       <c r="C263" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D263" t="s">
-        <v>10</v>
+        <v>278</v>
       </c>
       <c r="E263" t="s">
-        <v>278</v>
+        <v>32</v>
       </c>
     </row>
     <row r="264">
@@ -5989,13 +5989,13 @@
         <v>282</v>
       </c>
       <c r="C264" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D264" t="s">
-        <v>10</v>
+        <v>278</v>
       </c>
       <c r="E264" t="s">
-        <v>278</v>
+        <v>8</v>
       </c>
     </row>
     <row r="265">
@@ -6006,13 +6006,13 @@
         <v>283</v>
       </c>
       <c r="C265" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D265" t="s">
-        <v>10</v>
+        <v>278</v>
       </c>
       <c r="E265" t="s">
-        <v>278</v>
+        <v>8</v>
       </c>
     </row>
     <row r="266">
@@ -6023,13 +6023,13 @@
         <v>284</v>
       </c>
       <c r="C266" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D266" t="s">
-        <v>10</v>
+        <v>278</v>
       </c>
       <c r="E266" t="s">
-        <v>278</v>
+        <v>8</v>
       </c>
     </row>
     <row r="267">
@@ -6040,13 +6040,13 @@
         <v>285</v>
       </c>
       <c r="C267" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D267" t="s">
-        <v>7</v>
+        <v>286</v>
       </c>
       <c r="E267" t="s">
-        <v>286</v>
+        <v>32</v>
       </c>
     </row>
     <row r="268">
@@ -6060,10 +6060,10 @@
         <v>6</v>
       </c>
       <c r="D268" t="s">
-        <v>7</v>
+        <v>286</v>
       </c>
       <c r="E268" t="s">
-        <v>286</v>
+        <v>8</v>
       </c>
     </row>
     <row r="269">
@@ -6074,13 +6074,13 @@
         <v>288</v>
       </c>
       <c r="C269" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D269" t="s">
-        <v>7</v>
+        <v>286</v>
       </c>
       <c r="E269" t="s">
-        <v>286</v>
+        <v>32</v>
       </c>
     </row>
     <row r="270">
@@ -6091,13 +6091,13 @@
         <v>289</v>
       </c>
       <c r="C270" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D270" t="s">
-        <v>7</v>
+        <v>286</v>
       </c>
       <c r="E270" t="s">
-        <v>286</v>
+        <v>32</v>
       </c>
     </row>
     <row r="271">
@@ -6108,13 +6108,13 @@
         <v>290</v>
       </c>
       <c r="C271" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D271" t="s">
-        <v>7</v>
+        <v>286</v>
       </c>
       <c r="E271" t="s">
-        <v>286</v>
+        <v>32</v>
       </c>
     </row>
     <row r="272">
@@ -6125,13 +6125,13 @@
         <v>291</v>
       </c>
       <c r="C272" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D272" t="s">
-        <v>7</v>
+        <v>286</v>
       </c>
       <c r="E272" t="s">
-        <v>286</v>
+        <v>32</v>
       </c>
     </row>
     <row r="273">
@@ -6145,10 +6145,10 @@
         <v>6</v>
       </c>
       <c r="D273" t="s">
-        <v>7</v>
+        <v>286</v>
       </c>
       <c r="E273" t="s">
-        <v>286</v>
+        <v>8</v>
       </c>
     </row>
     <row r="274">
@@ -6159,13 +6159,13 @@
         <v>293</v>
       </c>
       <c r="C274" t="s">
+        <v>6</v>
+      </c>
+      <c r="D274" t="s">
+        <v>286</v>
+      </c>
+      <c r="E274" t="s">
         <v>57</v>
-      </c>
-      <c r="D274" t="s">
-        <v>7</v>
-      </c>
-      <c r="E274" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="275">
@@ -6179,10 +6179,10 @@
         <v>6</v>
       </c>
       <c r="D275" t="s">
-        <v>7</v>
+        <v>286</v>
       </c>
       <c r="E275" t="s">
-        <v>286</v>
+        <v>8</v>
       </c>
     </row>
     <row r="276">
@@ -6193,13 +6193,13 @@
         <v>295</v>
       </c>
       <c r="C276" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D276" t="s">
-        <v>7</v>
+        <v>286</v>
       </c>
       <c r="E276" t="s">
-        <v>286</v>
+        <v>32</v>
       </c>
     </row>
     <row r="277">
@@ -6210,13 +6210,13 @@
         <v>296</v>
       </c>
       <c r="C277" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D277" t="s">
-        <v>7</v>
+        <v>286</v>
       </c>
       <c r="E277" t="s">
-        <v>286</v>
+        <v>32</v>
       </c>
     </row>
     <row r="278">
@@ -6227,13 +6227,13 @@
         <v>297</v>
       </c>
       <c r="C278" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D278" t="s">
-        <v>7</v>
+        <v>286</v>
       </c>
       <c r="E278" t="s">
-        <v>286</v>
+        <v>32</v>
       </c>
     </row>
     <row r="279">
@@ -6244,13 +6244,13 @@
         <v>298</v>
       </c>
       <c r="C279" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D279" t="s">
-        <v>7</v>
+        <v>286</v>
       </c>
       <c r="E279" t="s">
-        <v>286</v>
+        <v>32</v>
       </c>
     </row>
     <row r="280">
@@ -6261,13 +6261,13 @@
         <v>299</v>
       </c>
       <c r="C280" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D280" t="s">
-        <v>7</v>
+        <v>286</v>
       </c>
       <c r="E280" t="s">
-        <v>286</v>
+        <v>32</v>
       </c>
     </row>
     <row r="281">
@@ -6278,13 +6278,13 @@
         <v>300</v>
       </c>
       <c r="C281" t="s">
+        <v>6</v>
+      </c>
+      <c r="D281" t="s">
+        <v>286</v>
+      </c>
+      <c r="E281" t="s">
         <v>44</v>
-      </c>
-      <c r="D281" t="s">
-        <v>7</v>
-      </c>
-      <c r="E281" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="282">
@@ -6295,13 +6295,13 @@
         <v>301</v>
       </c>
       <c r="C282" t="s">
+        <v>6</v>
+      </c>
+      <c r="D282" t="s">
+        <v>286</v>
+      </c>
+      <c r="E282" t="s">
         <v>50</v>
-      </c>
-      <c r="D282" t="s">
-        <v>7</v>
-      </c>
-      <c r="E282" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="283">
@@ -6312,13 +6312,13 @@
         <v>302</v>
       </c>
       <c r="C283" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D283" t="s">
-        <v>7</v>
+        <v>286</v>
       </c>
       <c r="E283" t="s">
-        <v>286</v>
+        <v>32</v>
       </c>
     </row>
     <row r="284">
@@ -6329,13 +6329,13 @@
         <v>303</v>
       </c>
       <c r="C284" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D284" t="s">
-        <v>7</v>
+        <v>286</v>
       </c>
       <c r="E284" t="s">
-        <v>286</v>
+        <v>32</v>
       </c>
     </row>
     <row r="285">
@@ -6346,13 +6346,13 @@
         <v>304</v>
       </c>
       <c r="C285" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D285" t="s">
-        <v>7</v>
+        <v>286</v>
       </c>
       <c r="E285" t="s">
-        <v>286</v>
+        <v>32</v>
       </c>
     </row>
     <row r="286">
@@ -6366,10 +6366,10 @@
         <v>6</v>
       </c>
       <c r="D286" t="s">
-        <v>7</v>
+        <v>286</v>
       </c>
       <c r="E286" t="s">
-        <v>286</v>
+        <v>8</v>
       </c>
     </row>
     <row r="287">
@@ -6380,13 +6380,13 @@
         <v>306</v>
       </c>
       <c r="C287" t="s">
+        <v>6</v>
+      </c>
+      <c r="D287" t="s">
+        <v>286</v>
+      </c>
+      <c r="E287" t="s">
         <v>44</v>
-      </c>
-      <c r="D287" t="s">
-        <v>7</v>
-      </c>
-      <c r="E287" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="288">
@@ -6397,13 +6397,13 @@
         <v>307</v>
       </c>
       <c r="C288" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D288" t="s">
-        <v>7</v>
+        <v>286</v>
       </c>
       <c r="E288" t="s">
-        <v>286</v>
+        <v>32</v>
       </c>
     </row>
     <row r="289">
@@ -6414,13 +6414,13 @@
         <v>308</v>
       </c>
       <c r="C289" t="s">
+        <v>6</v>
+      </c>
+      <c r="D289" t="s">
+        <v>286</v>
+      </c>
+      <c r="E289" t="s">
         <v>50</v>
-      </c>
-      <c r="D289" t="s">
-        <v>7</v>
-      </c>
-      <c r="E289" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="290">
@@ -6431,13 +6431,13 @@
         <v>309</v>
       </c>
       <c r="C290" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D290" t="s">
-        <v>7</v>
+        <v>286</v>
       </c>
       <c r="E290" t="s">
-        <v>286</v>
+        <v>32</v>
       </c>
     </row>
     <row r="291">
@@ -6451,10 +6451,10 @@
         <v>6</v>
       </c>
       <c r="D291" t="s">
-        <v>7</v>
+        <v>286</v>
       </c>
       <c r="E291" t="s">
-        <v>286</v>
+        <v>8</v>
       </c>
     </row>
     <row r="292">
@@ -6465,13 +6465,13 @@
         <v>311</v>
       </c>
       <c r="C292" t="s">
+        <v>6</v>
+      </c>
+      <c r="D292" t="s">
+        <v>286</v>
+      </c>
+      <c r="E292" t="s">
         <v>44</v>
-      </c>
-      <c r="D292" t="s">
-        <v>7</v>
-      </c>
-      <c r="E292" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="293">
@@ -6485,10 +6485,10 @@
         <v>6</v>
       </c>
       <c r="D293" t="s">
-        <v>7</v>
+        <v>286</v>
       </c>
       <c r="E293" t="s">
-        <v>286</v>
+        <v>8</v>
       </c>
     </row>
     <row r="294">
@@ -6499,13 +6499,13 @@
         <v>313</v>
       </c>
       <c r="C294" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D294" t="s">
-        <v>7</v>
+        <v>286</v>
       </c>
       <c r="E294" t="s">
-        <v>286</v>
+        <v>32</v>
       </c>
     </row>
     <row r="295">
@@ -6516,13 +6516,13 @@
         <v>314</v>
       </c>
       <c r="C295" t="s">
+        <v>6</v>
+      </c>
+      <c r="D295" t="s">
+        <v>286</v>
+      </c>
+      <c r="E295" t="s">
         <v>50</v>
-      </c>
-      <c r="D295" t="s">
-        <v>7</v>
-      </c>
-      <c r="E295" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="296">
@@ -6533,13 +6533,13 @@
         <v>315</v>
       </c>
       <c r="C296" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D296" t="s">
-        <v>7</v>
+        <v>286</v>
       </c>
       <c r="E296" t="s">
-        <v>286</v>
+        <v>32</v>
       </c>
     </row>
     <row r="297">
@@ -6553,10 +6553,10 @@
         <v>6</v>
       </c>
       <c r="D297" t="s">
-        <v>7</v>
+        <v>286</v>
       </c>
       <c r="E297" t="s">
-        <v>286</v>
+        <v>8</v>
       </c>
     </row>
     <row r="298">
@@ -6567,13 +6567,13 @@
         <v>317</v>
       </c>
       <c r="C298" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D298" t="s">
-        <v>10</v>
+        <v>318</v>
       </c>
       <c r="E298" t="s">
-        <v>318</v>
+        <v>8</v>
       </c>
     </row>
     <row r="299">
@@ -6584,13 +6584,13 @@
         <v>319</v>
       </c>
       <c r="C299" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D299" t="s">
-        <v>10</v>
+        <v>318</v>
       </c>
       <c r="E299" t="s">
-        <v>318</v>
+        <v>8</v>
       </c>
     </row>
     <row r="300">
@@ -6601,13 +6601,13 @@
         <v>320</v>
       </c>
       <c r="C300" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D300" t="s">
-        <v>10</v>
+        <v>318</v>
       </c>
       <c r="E300" t="s">
-        <v>318</v>
+        <v>32</v>
       </c>
     </row>
     <row r="301">
@@ -6618,13 +6618,13 @@
         <v>321</v>
       </c>
       <c r="C301" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D301" t="s">
-        <v>10</v>
+        <v>318</v>
       </c>
       <c r="E301" t="s">
-        <v>318</v>
+        <v>8</v>
       </c>
     </row>
     <row r="302">
@@ -6635,13 +6635,13 @@
         <v>322</v>
       </c>
       <c r="C302" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D302" t="s">
-        <v>10</v>
+        <v>318</v>
       </c>
       <c r="E302" t="s">
-        <v>318</v>
+        <v>8</v>
       </c>
     </row>
     <row r="303">
@@ -6652,13 +6652,13 @@
         <v>323</v>
       </c>
       <c r="C303" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D303" t="s">
-        <v>10</v>
+        <v>318</v>
       </c>
       <c r="E303" t="s">
-        <v>318</v>
+        <v>8</v>
       </c>
     </row>
     <row r="304">
@@ -6669,13 +6669,13 @@
         <v>324</v>
       </c>
       <c r="C304" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D304" t="s">
-        <v>10</v>
+        <v>318</v>
       </c>
       <c r="E304" t="s">
-        <v>318</v>
+        <v>32</v>
       </c>
     </row>
     <row r="305">
@@ -6686,13 +6686,13 @@
         <v>325</v>
       </c>
       <c r="C305" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D305" t="s">
-        <v>10</v>
+        <v>318</v>
       </c>
       <c r="E305" t="s">
-        <v>318</v>
+        <v>32</v>
       </c>
     </row>
     <row r="306">
@@ -6703,13 +6703,13 @@
         <v>326</v>
       </c>
       <c r="C306" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D306" t="s">
-        <v>10</v>
+        <v>318</v>
       </c>
       <c r="E306" t="s">
-        <v>318</v>
+        <v>32</v>
       </c>
     </row>
     <row r="307">
@@ -6720,13 +6720,13 @@
         <v>327</v>
       </c>
       <c r="C307" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D307" t="s">
-        <v>10</v>
+        <v>318</v>
       </c>
       <c r="E307" t="s">
-        <v>318</v>
+        <v>8</v>
       </c>
     </row>
     <row r="308">
@@ -6737,13 +6737,13 @@
         <v>328</v>
       </c>
       <c r="C308" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D308" t="s">
-        <v>10</v>
+        <v>318</v>
       </c>
       <c r="E308" t="s">
-        <v>318</v>
+        <v>8</v>
       </c>
     </row>
     <row r="309">
@@ -6754,13 +6754,13 @@
         <v>329</v>
       </c>
       <c r="C309" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D309" t="s">
-        <v>10</v>
+        <v>318</v>
       </c>
       <c r="E309" t="s">
-        <v>318</v>
+        <v>8</v>
       </c>
     </row>
     <row r="310">
@@ -6771,13 +6771,13 @@
         <v>330</v>
       </c>
       <c r="C310" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D310" t="s">
-        <v>10</v>
+        <v>318</v>
       </c>
       <c r="E310" t="s">
-        <v>318</v>
+        <v>8</v>
       </c>
     </row>
     <row r="311">
@@ -6788,13 +6788,13 @@
         <v>331</v>
       </c>
       <c r="C311" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D311" t="s">
-        <v>10</v>
+        <v>318</v>
       </c>
       <c r="E311" t="s">
-        <v>318</v>
+        <v>32</v>
       </c>
     </row>
     <row r="312">
@@ -6805,13 +6805,13 @@
         <v>332</v>
       </c>
       <c r="C312" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D312" t="s">
-        <v>10</v>
+        <v>318</v>
       </c>
       <c r="E312" t="s">
-        <v>318</v>
+        <v>32</v>
       </c>
     </row>
     <row r="313">
@@ -6822,13 +6822,13 @@
         <v>333</v>
       </c>
       <c r="C313" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D313" t="s">
-        <v>10</v>
+        <v>318</v>
       </c>
       <c r="E313" t="s">
-        <v>318</v>
+        <v>32</v>
       </c>
     </row>
     <row r="314">
@@ -6839,13 +6839,13 @@
         <v>334</v>
       </c>
       <c r="C314" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D314" t="s">
-        <v>10</v>
+        <v>318</v>
       </c>
       <c r="E314" t="s">
-        <v>318</v>
+        <v>8</v>
       </c>
     </row>
     <row r="315">
@@ -6856,13 +6856,13 @@
         <v>335</v>
       </c>
       <c r="C315" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D315" t="s">
-        <v>10</v>
+        <v>318</v>
       </c>
       <c r="E315" t="s">
-        <v>318</v>
+        <v>8</v>
       </c>
     </row>
     <row r="316">
@@ -6873,13 +6873,13 @@
         <v>336</v>
       </c>
       <c r="C316" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D316" t="s">
-        <v>10</v>
+        <v>318</v>
       </c>
       <c r="E316" t="s">
-        <v>318</v>
+        <v>8</v>
       </c>
     </row>
     <row r="317">
@@ -6890,13 +6890,13 @@
         <v>337</v>
       </c>
       <c r="C317" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D317" t="s">
-        <v>10</v>
+        <v>318</v>
       </c>
       <c r="E317" t="s">
-        <v>318</v>
+        <v>8</v>
       </c>
     </row>
     <row r="318">
@@ -6907,13 +6907,13 @@
         <v>338</v>
       </c>
       <c r="C318" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D318" t="s">
-        <v>10</v>
+        <v>318</v>
       </c>
       <c r="E318" t="s">
-        <v>318</v>
+        <v>8</v>
       </c>
     </row>
     <row r="319">
@@ -6924,13 +6924,13 @@
         <v>339</v>
       </c>
       <c r="C319" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D319" t="s">
-        <v>10</v>
+        <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>318</v>
+        <v>32</v>
       </c>
     </row>
     <row r="320">
@@ -6941,13 +6941,13 @@
         <v>340</v>
       </c>
       <c r="C320" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D320" t="s">
-        <v>10</v>
+        <v>318</v>
       </c>
       <c r="E320" t="s">
-        <v>318</v>
+        <v>32</v>
       </c>
     </row>
     <row r="321">
@@ -6958,13 +6958,13 @@
         <v>341</v>
       </c>
       <c r="C321" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D321" t="s">
-        <v>10</v>
+        <v>318</v>
       </c>
       <c r="E321" t="s">
-        <v>318</v>
+        <v>8</v>
       </c>
     </row>
     <row r="322">
@@ -6975,13 +6975,13 @@
         <v>342</v>
       </c>
       <c r="C322" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D322" t="s">
-        <v>10</v>
+        <v>318</v>
       </c>
       <c r="E322" t="s">
-        <v>318</v>
+        <v>8</v>
       </c>
     </row>
     <row r="323">
@@ -6992,13 +6992,13 @@
         <v>343</v>
       </c>
       <c r="C323" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D323" t="s">
-        <v>10</v>
+        <v>318</v>
       </c>
       <c r="E323" t="s">
-        <v>318</v>
+        <v>8</v>
       </c>
     </row>
     <row r="324">
@@ -7009,13 +7009,13 @@
         <v>344</v>
       </c>
       <c r="C324" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D324" t="s">
-        <v>10</v>
+        <v>318</v>
       </c>
       <c r="E324" t="s">
-        <v>318</v>
+        <v>32</v>
       </c>
     </row>
     <row r="325">
@@ -7026,13 +7026,13 @@
         <v>345</v>
       </c>
       <c r="C325" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D325" t="s">
-        <v>10</v>
+        <v>318</v>
       </c>
       <c r="E325" t="s">
-        <v>318</v>
+        <v>8</v>
       </c>
     </row>
     <row r="326">
@@ -7043,13 +7043,13 @@
         <v>346</v>
       </c>
       <c r="C326" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D326" t="s">
-        <v>10</v>
+        <v>318</v>
       </c>
       <c r="E326" t="s">
-        <v>318</v>
+        <v>8</v>
       </c>
     </row>
     <row r="327">
@@ -7060,13 +7060,13 @@
         <v>347</v>
       </c>
       <c r="C327" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D327" t="s">
-        <v>10</v>
+        <v>318</v>
       </c>
       <c r="E327" t="s">
-        <v>318</v>
+        <v>8</v>
       </c>
     </row>
     <row r="328">
@@ -7077,13 +7077,13 @@
         <v>348</v>
       </c>
       <c r="C328" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D328" t="s">
-        <v>10</v>
+        <v>318</v>
       </c>
       <c r="E328" t="s">
-        <v>318</v>
+        <v>8</v>
       </c>
     </row>
     <row r="329">
@@ -7094,13 +7094,13 @@
         <v>349</v>
       </c>
       <c r="C329" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D329" t="s">
-        <v>10</v>
+        <v>318</v>
       </c>
       <c r="E329" t="s">
-        <v>318</v>
+        <v>32</v>
       </c>
     </row>
     <row r="330">
@@ -7111,13 +7111,13 @@
         <v>350</v>
       </c>
       <c r="C330" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D330" t="s">
-        <v>10</v>
+        <v>318</v>
       </c>
       <c r="E330" t="s">
-        <v>318</v>
+        <v>8</v>
       </c>
     </row>
     <row r="331">
@@ -7128,13 +7128,13 @@
         <v>351</v>
       </c>
       <c r="C331" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D331" t="s">
-        <v>10</v>
+        <v>318</v>
       </c>
       <c r="E331" t="s">
-        <v>318</v>
+        <v>8</v>
       </c>
     </row>
     <row r="332">
@@ -7145,13 +7145,13 @@
         <v>352</v>
       </c>
       <c r="C332" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D332" t="s">
-        <v>10</v>
+        <v>318</v>
       </c>
       <c r="E332" t="s">
-        <v>318</v>
+        <v>8</v>
       </c>
     </row>
     <row r="333">
@@ -7162,13 +7162,13 @@
         <v>353</v>
       </c>
       <c r="C333" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D333" t="s">
-        <v>10</v>
+        <v>354</v>
       </c>
       <c r="E333" t="s">
-        <v>354</v>
+        <v>8</v>
       </c>
     </row>
     <row r="334">
@@ -7179,13 +7179,13 @@
         <v>355</v>
       </c>
       <c r="C334" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D334" t="s">
-        <v>10</v>
+        <v>354</v>
       </c>
       <c r="E334" t="s">
-        <v>354</v>
+        <v>8</v>
       </c>
     </row>
     <row r="335">
@@ -7196,13 +7196,13 @@
         <v>356</v>
       </c>
       <c r="C335" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D335" t="s">
-        <v>10</v>
+        <v>354</v>
       </c>
       <c r="E335" t="s">
-        <v>354</v>
+        <v>8</v>
       </c>
     </row>
     <row r="336">
@@ -7213,13 +7213,13 @@
         <v>357</v>
       </c>
       <c r="C336" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D336" t="s">
-        <v>10</v>
+        <v>354</v>
       </c>
       <c r="E336" t="s">
-        <v>354</v>
+        <v>32</v>
       </c>
     </row>
     <row r="337">
@@ -7230,13 +7230,13 @@
         <v>358</v>
       </c>
       <c r="C337" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D337" t="s">
-        <v>10</v>
+        <v>354</v>
       </c>
       <c r="E337" t="s">
-        <v>354</v>
+        <v>8</v>
       </c>
     </row>
     <row r="338">
@@ -7247,13 +7247,13 @@
         <v>359</v>
       </c>
       <c r="C338" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D338" t="s">
-        <v>10</v>
+        <v>354</v>
       </c>
       <c r="E338" t="s">
-        <v>354</v>
+        <v>8</v>
       </c>
     </row>
     <row r="339">
@@ -7264,13 +7264,13 @@
         <v>360</v>
       </c>
       <c r="C339" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D339" t="s">
-        <v>10</v>
+        <v>354</v>
       </c>
       <c r="E339" t="s">
-        <v>354</v>
+        <v>8</v>
       </c>
     </row>
     <row r="340">
@@ -7281,13 +7281,13 @@
         <v>361</v>
       </c>
       <c r="C340" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D340" t="s">
-        <v>10</v>
+        <v>354</v>
       </c>
       <c r="E340" t="s">
-        <v>354</v>
+        <v>32</v>
       </c>
     </row>
     <row r="341">
@@ -7298,13 +7298,13 @@
         <v>362</v>
       </c>
       <c r="C341" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D341" t="s">
-        <v>10</v>
+        <v>354</v>
       </c>
       <c r="E341" t="s">
-        <v>354</v>
+        <v>8</v>
       </c>
     </row>
     <row r="342">
@@ -7315,13 +7315,13 @@
         <v>363</v>
       </c>
       <c r="C342" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D342" t="s">
-        <v>10</v>
+        <v>354</v>
       </c>
       <c r="E342" t="s">
-        <v>354</v>
+        <v>32</v>
       </c>
     </row>
     <row r="343">
@@ -7332,13 +7332,13 @@
         <v>364</v>
       </c>
       <c r="C343" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D343" t="s">
-        <v>10</v>
+        <v>354</v>
       </c>
       <c r="E343" t="s">
-        <v>354</v>
+        <v>8</v>
       </c>
     </row>
     <row r="344">
@@ -7349,13 +7349,13 @@
         <v>365</v>
       </c>
       <c r="C344" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D344" t="s">
-        <v>10</v>
+        <v>354</v>
       </c>
       <c r="E344" t="s">
-        <v>354</v>
+        <v>8</v>
       </c>
     </row>
     <row r="345">
@@ -7366,13 +7366,13 @@
         <v>366</v>
       </c>
       <c r="C345" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D345" t="s">
-        <v>10</v>
+        <v>354</v>
       </c>
       <c r="E345" t="s">
-        <v>354</v>
+        <v>8</v>
       </c>
     </row>
     <row r="346">
@@ -7383,13 +7383,13 @@
         <v>367</v>
       </c>
       <c r="C346" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D346" t="s">
-        <v>10</v>
+        <v>354</v>
       </c>
       <c r="E346" t="s">
-        <v>354</v>
+        <v>8</v>
       </c>
     </row>
     <row r="347">
@@ -7400,13 +7400,13 @@
         <v>368</v>
       </c>
       <c r="C347" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D347" t="s">
-        <v>10</v>
+        <v>354</v>
       </c>
       <c r="E347" t="s">
-        <v>354</v>
+        <v>8</v>
       </c>
     </row>
     <row r="348">
@@ -7417,13 +7417,13 @@
         <v>369</v>
       </c>
       <c r="C348" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D348" t="s">
-        <v>10</v>
+        <v>354</v>
       </c>
       <c r="E348" t="s">
-        <v>354</v>
+        <v>8</v>
       </c>
     </row>
     <row r="349">
@@ -7434,13 +7434,13 @@
         <v>370</v>
       </c>
       <c r="C349" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D349" t="s">
-        <v>10</v>
+        <v>354</v>
       </c>
       <c r="E349" t="s">
-        <v>354</v>
+        <v>8</v>
       </c>
     </row>
     <row r="350">
@@ -7451,13 +7451,13 @@
         <v>371</v>
       </c>
       <c r="C350" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D350" t="s">
-        <v>10</v>
+        <v>354</v>
       </c>
       <c r="E350" t="s">
-        <v>354</v>
+        <v>32</v>
       </c>
     </row>
     <row r="351">
@@ -7468,13 +7468,13 @@
         <v>372</v>
       </c>
       <c r="C351" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D351" t="s">
-        <v>10</v>
+        <v>354</v>
       </c>
       <c r="E351" t="s">
-        <v>354</v>
+        <v>8</v>
       </c>
     </row>
     <row r="352">
@@ -7485,13 +7485,13 @@
         <v>373</v>
       </c>
       <c r="C352" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D352" t="s">
-        <v>10</v>
+        <v>354</v>
       </c>
       <c r="E352" t="s">
-        <v>354</v>
+        <v>32</v>
       </c>
     </row>
     <row r="353">
@@ -7502,13 +7502,13 @@
         <v>374</v>
       </c>
       <c r="C353" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D353" t="s">
-        <v>10</v>
+        <v>354</v>
       </c>
       <c r="E353" t="s">
-        <v>354</v>
+        <v>8</v>
       </c>
     </row>
     <row r="354">
@@ -7519,13 +7519,13 @@
         <v>375</v>
       </c>
       <c r="C354" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D354" t="s">
-        <v>10</v>
+        <v>354</v>
       </c>
       <c r="E354" t="s">
-        <v>354</v>
+        <v>8</v>
       </c>
     </row>
     <row r="355">
@@ -7536,13 +7536,13 @@
         <v>376</v>
       </c>
       <c r="C355" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D355" t="s">
-        <v>10</v>
+        <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>354</v>
+        <v>8</v>
       </c>
     </row>
     <row r="356">
@@ -7553,13 +7553,13 @@
         <v>377</v>
       </c>
       <c r="C356" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D356" t="s">
-        <v>10</v>
+        <v>354</v>
       </c>
       <c r="E356" t="s">
-        <v>354</v>
+        <v>8</v>
       </c>
     </row>
     <row r="357">
@@ -7570,13 +7570,13 @@
         <v>378</v>
       </c>
       <c r="C357" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D357" t="s">
-        <v>10</v>
+        <v>354</v>
       </c>
       <c r="E357" t="s">
-        <v>354</v>
+        <v>8</v>
       </c>
     </row>
     <row r="358">
@@ -7587,13 +7587,13 @@
         <v>379</v>
       </c>
       <c r="C358" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D358" t="s">
-        <v>10</v>
+        <v>354</v>
       </c>
       <c r="E358" t="s">
-        <v>354</v>
+        <v>8</v>
       </c>
     </row>
     <row r="359">
@@ -7604,13 +7604,13 @@
         <v>380</v>
       </c>
       <c r="C359" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D359" t="s">
-        <v>10</v>
+        <v>354</v>
       </c>
       <c r="E359" t="s">
-        <v>354</v>
+        <v>8</v>
       </c>
     </row>
     <row r="360">
@@ -7621,13 +7621,13 @@
         <v>381</v>
       </c>
       <c r="C360" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D360" t="s">
-        <v>10</v>
+        <v>354</v>
       </c>
       <c r="E360" t="s">
-        <v>354</v>
+        <v>8</v>
       </c>
     </row>
     <row r="361">
@@ -7638,13 +7638,13 @@
         <v>382</v>
       </c>
       <c r="C361" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D361" t="s">
-        <v>10</v>
+        <v>354</v>
       </c>
       <c r="E361" t="s">
-        <v>354</v>
+        <v>8</v>
       </c>
     </row>
     <row r="362">
@@ -7655,13 +7655,13 @@
         <v>383</v>
       </c>
       <c r="C362" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D362" t="s">
-        <v>10</v>
+        <v>354</v>
       </c>
       <c r="E362" t="s">
-        <v>354</v>
+        <v>8</v>
       </c>
     </row>
     <row r="363">
@@ -7672,13 +7672,13 @@
         <v>384</v>
       </c>
       <c r="C363" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D363" t="s">
-        <v>10</v>
+        <v>354</v>
       </c>
       <c r="E363" t="s">
-        <v>354</v>
+        <v>8</v>
       </c>
     </row>
     <row r="364">
@@ -7689,13 +7689,13 @@
         <v>385</v>
       </c>
       <c r="C364" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D364" t="s">
-        <v>10</v>
+        <v>354</v>
       </c>
       <c r="E364" t="s">
-        <v>354</v>
+        <v>8</v>
       </c>
     </row>
     <row r="365">
@@ -7706,13 +7706,13 @@
         <v>386</v>
       </c>
       <c r="C365" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D365" t="s">
-        <v>10</v>
+        <v>354</v>
       </c>
       <c r="E365" t="s">
-        <v>354</v>
+        <v>8</v>
       </c>
     </row>
     <row r="366">
@@ -7723,13 +7723,13 @@
         <v>387</v>
       </c>
       <c r="C366" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D366" t="s">
-        <v>10</v>
+        <v>354</v>
       </c>
       <c r="E366" t="s">
-        <v>354</v>
+        <v>8</v>
       </c>
     </row>
     <row r="367">
@@ -7740,13 +7740,13 @@
         <v>388</v>
       </c>
       <c r="C367" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D367" t="s">
-        <v>10</v>
+        <v>354</v>
       </c>
       <c r="E367" t="s">
-        <v>354</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
